--- a/data/trans_camb/P18_4_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P18_4_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-18,96</t>
+          <t>-16,75</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-12,27</t>
+          <t>-8,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-14,6</t>
+          <t>-12,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-18,93</t>
+          <t>-17,13</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,93</t>
+          <t>-17,07</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,23</t>
+          <t>-9,78</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-19,07</t>
+          <t>-17,38</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-12,4</t>
+          <t>-21,97</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-13,99</t>
+          <t>-16,98</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-9,12</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-15,19</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-19,72</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-30,79; -8,9</t>
+          <t>-34,68; -3,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-24,59; -0,65</t>
+          <t>-26,51; 9,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-26,85; -2,55</t>
+          <t>-30,49; 4,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-31,56; -7,39</t>
+          <t>-35,5; -3,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,39; 0,61</t>
+          <t>-32,83; -4,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,05; 8,35</t>
+          <t>-26,02; 6,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-28,23; -11,91</t>
+          <t>-31,72; -3,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-22,52; -3,78</t>
+          <t>-37,03; -11,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-23,37; -3,69</t>
+          <t>-26,96; -7,22</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-19,48; 2,88</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-25,69; -4,88</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-29,8; -10,5</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-93,06%</t>
+          <t>-85,0%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-60,22%</t>
+          <t>-41,38%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-71,68%</t>
+          <t>-64,43%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-74,07%</t>
+          <t>-86,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-46,66%</t>
+          <t>-77,71%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-47,86%</t>
+          <t>-44,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-82,13%</t>
+          <t>-79,13%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-53,42%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-60,26%</t>
+          <t>-80,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-43,42%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-72,3%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-93,86%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -16,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-86,58; 0,72</t>
+          <t>-86,67; 186,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-93,31; -0,56</t>
+          <t>-100,0; 109,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-94,19; -28,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-77,9; 5,47</t>
+          <t>-100,0; 10,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,24; 47,79</t>
+          <t>-84,28; 60,15</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-94,4; -58,82</t>
+          <t>-100,0; -6,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-74,93; -16,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-81,87; 0,94</t>
+          <t>-95,42; -32,4</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-74,11; 29,88</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-92,41; -14,16</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; -50,97</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-22,82</t>
+          <t>-22,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-10,85</t>
+          <t>-2,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-17,81</t>
+          <t>-18,96</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-19,78</t>
+          <t>-23,63</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-14,33</t>
+          <t>-17,98</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-18,51</t>
+          <t>-13,27</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-21,26</t>
+          <t>-16,14</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-12,57</t>
+          <t>-21,44</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-18,06</t>
+          <t>-20,5</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-7,61</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-17,61</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-22,56</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-44,58; -10,16</t>
+          <t>-53,09; -6,64</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,79; 14,79</t>
+          <t>-31,02; 33,44</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-36,96; -4,76</t>
+          <t>-51,05; -2,55</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-29,75; -10,71</t>
+          <t>-51,23; -7,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,55; -3,88</t>
+          <t>-33,03; -5,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-29,06; -8,69</t>
+          <t>-28,21; 0,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,44; -13,94</t>
+          <t>-31,44; -1,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,35; -0,2</t>
+          <t>-36,24; -10,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-29,92; -9,89</t>
+          <t>-35,7; -9,72</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-23,53; 15,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-34,33; -5,93</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-39,0; -12,77</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-85,95%</t>
+          <t>-85,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-40,88%</t>
+          <t>-9,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-67,09%</t>
+          <t>-70,72%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-82,93%</t>
+          <t>-88,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-60,08%</t>
+          <t>-72,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-77,62%</t>
+          <t>-53,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-84,47%</t>
+          <t>-65,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-49,92%</t>
+          <t>-86,91%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-71,73%</t>
+          <t>-79,57%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-29,53%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-68,35%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-87,58%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -49,68</t>
+          <t>-100,0; -26,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-85,91; 104,01</t>
+          <t>-85,34; 283,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-90,9; -15,26</t>
+          <t>-100,0; -2,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-95,34; -49,24</t>
+          <t>-100,0; -39,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,03; -16,82</t>
+          <t>-93,33; -9,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-94,0; -40,46</t>
+          <t>-83,67; 14,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-93,41; -65,23</t>
+          <t>-91,41; 14,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-75,4; 7,28</t>
+          <t>-100,0; -41,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-86,27; -45,64</t>
+          <t>-92,71; -50,62</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-72,2; 110,57</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-88,37; -26,76</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-97,09; -61,45</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-12,09</t>
+          <t>-20,31</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-16,99</t>
+          <t>-26,1</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-14,18</t>
+          <t>-21,91</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-10,12</t>
+          <t>-21,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,5</t>
+          <t>-6,45</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-6,31</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-10,9</t>
+          <t>-5,04</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-10,82</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-9,89</t>
+          <t>-11,94</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-12,46</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-11,68</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-13,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 2,35</t>
+          <t>-35,19; -6,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-27,07; -0,65</t>
+          <t>-41,04; -14,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,01; 0,84</t>
+          <t>-35,88; -6,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-17,79; -3,5</t>
+          <t>-35,33; -6,44</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-12,44; 2,73</t>
+          <t>-14,55; 2,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 0,9</t>
+          <t>-12,33; 5,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,66; -3,26</t>
+          <t>-13,43; 3,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-17,68; -3,34</t>
+          <t>-16,99; 0,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-16,94; -2,16</t>
+          <t>-19,89; -4,55</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-20,57; -5,15</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-20,41; -4,45</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-21,68; -6,21</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-45,8%</t>
+          <t>-64,67%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-64,37%</t>
+          <t>-83,11%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-53,71%</t>
+          <t>-69,76%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-61,53%</t>
+          <t>-68,89%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-33,43%</t>
+          <t>-44,82%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-38,36%</t>
+          <t>-25,12%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-51,81%</t>
+          <t>-35,04%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-51,42%</t>
+          <t>-58,67%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-46,98%</t>
+          <t>-56,65%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-59,09%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-55,38%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-64,01%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-75,49; 16,62</t>
+          <t>-85,85; -23,65</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,63; 18,75</t>
+          <t>-95,9; -54,93</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,13; 12,07</t>
+          <t>-90,08; -20,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-82,95; -20,47</t>
+          <t>-89,4; -20,06</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-62,4; 23,95</t>
+          <t>-77,15; 34,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-70,19; 8,91</t>
+          <t>-66,18; 66,01</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-73,41; -8,43</t>
+          <t>-68,99; 38,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-72,43; -9,38</t>
+          <t>-89,13; 8,99</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-70,84; -11,41</t>
+          <t>-76,93; -23,85</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-79,6; -27,04</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-75,54; -20,69</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-82,15; -31,34</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-14,9</t>
+          <t>-11,77</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-15,29</t>
+          <t>-8,95</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-14,81</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-18,04</t>
+          <t>-11,71</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-10,93</t>
+          <t>-19,69</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-16,23</t>
+          <t>-11,27</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-16,61</t>
+          <t>-17,05</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-12,94</t>
+          <t>-14,7</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-15,68</t>
+          <t>-16,02</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-10,24</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-13,43</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-13,55</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-23,75; -6,93</t>
+          <t>-21,55; -1,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-24,87; -7,08</t>
+          <t>-20,15; 2,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,7; -6,37</t>
+          <t>-19,55; 2,07</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-26,44; -10,23</t>
+          <t>-21,79; -2,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-19,84; -2,37</t>
+          <t>-29,79; -9,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-24,65; -8,3</t>
+          <t>-23,61; -0,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-23,26; -10,78</t>
+          <t>-27,99; -5,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-19,58; -6,54</t>
+          <t>-25,94; -2,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-22,2; -9,71</t>
+          <t>-23,7; -9,0</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-18,21; -2,12</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-21,08; -5,62</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-21,04; -6,01</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-65,79%</t>
+          <t>-65,28%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-67,54%</t>
+          <t>-49,64%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-65,43%</t>
+          <t>-50,02%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-61,78%</t>
+          <t>-64,92%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-37,42%</t>
+          <t>-62,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-55,59%</t>
+          <t>-35,71%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-63,27%</t>
+          <t>-54,02%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-49,28%</t>
+          <t>-46,58%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-59,7%</t>
+          <t>-63,25%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-40,44%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-53,02%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-53,49%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1688,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-84,49; -34,07</t>
+          <t>-88,83; 0,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-84,29; -32,35</t>
+          <t>-81,62; 26,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-84,36; -34,74</t>
+          <t>-80,93; 34,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-77,26; -39,56</t>
+          <t>-89,33; 2,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-58,98; -7,88</t>
+          <t>-80,77; -33,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-72,2; -29,42</t>
+          <t>-60,04; -0,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-75,67; -46,56</t>
+          <t>-75,66; -19,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-64,92; -26,66</t>
+          <t>-69,26; -7,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-73,88; -42,21</t>
+          <t>-78,66; -37,75</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-61,68; -8,61</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-71,44; -25,83</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-69,99; -26,39</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1760,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>-15,78</t>
+          <t>-15,46</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-13,6</t>
+          <t>-14,15</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-10,72</t>
+          <t>-9,07</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-19,76</t>
+          <t>-13,28</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-9,1</t>
+          <t>-22,73</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-12,19</t>
+          <t>-11,01</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-17,72</t>
+          <t>-17,29</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-11,48</t>
+          <t>-13,72</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-11,46</t>
+          <t>-18,59</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-12,95</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-12,63</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-13,33</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1828,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-26,66; -5,54</t>
+          <t>-28,95; -1,28</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-24,26; -3,89</t>
+          <t>-27,83; -0,02</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-21,83; -0,02</t>
+          <t>-23,72; 5,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-29,94; -10,09</t>
+          <t>-27,35; 1,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 3,13</t>
+          <t>-39,04; -8,02</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-24,01; -2,03</t>
+          <t>-28,52; 5,11</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-24,7; -10,91</t>
+          <t>-34,25; -0,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-19,53; -3,98</t>
+          <t>-31,39; 4,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-19,19; -3,12</t>
+          <t>-28,57; -8,22</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-24,47; -2,34</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-24,83; -1,65</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-23,93; -2,26</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1896,62 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-62,02%</t>
+          <t>-56,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-53,47%</t>
+          <t>-51,61%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-42,15%</t>
+          <t>-33,08%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-69,97%</t>
+          <t>-48,43%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-32,21%</t>
+          <t>-69,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-43,17%</t>
+          <t>-33,73%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-66,08%</t>
+          <t>-52,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-42,81%</t>
+          <t>-42,05%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-42,72%</t>
+          <t>-62,62%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-43,62%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-42,54%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-44,89%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1964,62 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-83,59; -28,43</t>
+          <t>-82,05; 0,65</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-75,35; -18,88</t>
+          <t>-79,2; 14,56</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-68,42; 0,98</t>
+          <t>-68,08; 33,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-87,43; -43,45</t>
+          <t>-78,43; 9,65</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-59,32; 17,7</t>
+          <t>-92,54; -27,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-70,22; -7,25</t>
+          <t>-66,34; 36,94</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-78,74; -46,35</t>
+          <t>-80,48; 9,83</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-61,78; -17,39</t>
+          <t>-78,66; 29,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-63,34; -13,38</t>
+          <t>-80,12; -32,72</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-66,97; -6,96</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-67,96; -6,21</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-68,62; -6,77</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2036,62 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-26,14</t>
+          <t>-22,31</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-27,25</t>
+          <t>-25,6</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-25,89</t>
+          <t>-17,38</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-24,76</t>
+          <t>-24,6</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-34,65</t>
+          <t>-22,68</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-29,95</t>
+          <t>-26,66</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-25,46</t>
+          <t>-25,06</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-31,27</t>
+          <t>-28,6</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-27,73</t>
+          <t>-22,45</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-26,07</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-21,61</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-26,31</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2104,62 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-38,44; -12,6</t>
+          <t>-40,74; -7,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-38,48; -14,73</t>
+          <t>-42,03; -10,73</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-38,19; -12,54</t>
+          <t>-34,13; 0,14</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-41,75; -8,87</t>
+          <t>-43,26; -10,19</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-47,91; -19,4</t>
+          <t>-42,73; -4,6</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-46,55; -14,14</t>
+          <t>-44,85; -7,09</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-35,26; -15,51</t>
+          <t>-43,2; -6,16</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-41,88; -21,04</t>
+          <t>-46,81; -10,98</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-38,15; -16,24</t>
+          <t>-36,1; -8,34</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-39,18; -13,72</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-34,38; -8,5</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-38,72; -12,27</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2172,62 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-76,11%</t>
+          <t>-79,64%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-79,35%</t>
+          <t>-91,39%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-75,39%</t>
+          <t>-62,04%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-49,28%</t>
+          <t>-87,81%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-68,96%</t>
+          <t>-53,42%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-59,61%</t>
+          <t>-62,79%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-58,77%</t>
+          <t>-59,03%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-72,17%</t>
+          <t>-67,35%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-64,02%</t>
+          <t>-62,37%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-72,43%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-60,03%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-73,08%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2240,62 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-92,29; -47,14</t>
+          <t>-100,0; -16,49</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-92,71; -49,53</t>
+          <t>-100,0; -29,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-90,91; -44,56</t>
+          <t>-89,77; 22,93</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-71,17; -19,05</t>
+          <t>-100,0; -33,98</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-83,55; -45,84</t>
+          <t>-79,16; -11,75</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-80,88; -29,6</t>
+          <t>-86,03; -18,83</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-72,18; -38,46</t>
+          <t>-83,45; -14,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-84,02; -56,21</t>
+          <t>-89,8; -27,51</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-78,89; -42,64</t>
+          <t>-80,68; -27,07</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-87,29; -45,96</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-79,54; -29,02</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-89,29; -36,65</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2312,62 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-17,69</t>
+          <t>-17,97</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-15,81</t>
+          <t>-13,56</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-16,19</t>
+          <t>-14,97</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-18,13</t>
+          <t>-18,68</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-13,79</t>
+          <t>-16,35</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-15,32</t>
+          <t>-11,3</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-17,94</t>
+          <t>-15,0</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-14,79</t>
+          <t>-16,38</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-15,81</t>
+          <t>-17,09</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-12,39</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-15,02</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-17,53</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2380,62 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-23,0; -12,95</t>
+          <t>-25,44; -11,89</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-21,12; -9,77</t>
+          <t>-21,26; -3,68</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-21,07; -11,15</t>
+          <t>-23,03; -8,53</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-22,45; -13,81</t>
+          <t>-26,12; -12,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-18,2; -9,55</t>
+          <t>-21,61; -11,01</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-19,84; -10,28</t>
+          <t>-16,85; -5,96</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-21,39; -14,53</t>
+          <t>-20,48; -10,05</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-18,1; -11,35</t>
+          <t>-21,54; -10,66</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-19,05; -12,47</t>
+          <t>-21,37; -12,95</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-16,8; -7,3</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-19,31; -10,84</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-21,72; -13,59</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2448,62 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-68,69%</t>
+          <t>-71,4%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-61,41%</t>
+          <t>-53,89%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-62,89%</t>
+          <t>-59,5%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-64,12%</t>
+          <t>-74,23%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-48,78%</t>
+          <t>-62,13%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-54,17%</t>
+          <t>-42,94%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-66,19%</t>
+          <t>-56,98%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-54,58%</t>
+          <t>-62,24%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-58,32%</t>
+          <t>-66,3%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-48,03%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-58,23%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-67,97%</t>
         </is>
       </c>
     </row>
@@ -2087,61 +2516,83 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-79,01; -52,67</t>
+          <t>-82,32; -54,03</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-74,19; -40,24</t>
+          <t>-72,4; -15,63</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-73,35; -47,87</t>
+          <t>-74,35; -39,45</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-73,05; -52,56</t>
+          <t>-84,81; -57,49</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-58,98; -37,1</t>
+          <t>-72,85; -46,33</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-65,29; -39,27</t>
+          <t>-57,4; -25,59</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-73,31; -56,1</t>
+          <t>-70,28; -41,68</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-62,37; -43,44</t>
+          <t>-74,28; -45,2</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-66,13; -48,94</t>
+          <t>-74,31; -55,95</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-59,53; -30,36</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-67,54; -45,07</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-76,89; -57,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
